--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H2">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1866496666666667</v>
+        <v>0.2848286666666667</v>
       </c>
       <c r="N2">
-        <v>0.559949</v>
+        <v>0.854486</v>
       </c>
       <c r="O2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="P2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="Q2">
-        <v>0.1568199391055555</v>
+        <v>0.4056563100677777</v>
       </c>
       <c r="R2">
-        <v>1.41137945195</v>
+        <v>3.650906790609999</v>
       </c>
       <c r="S2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
       <c r="T2">
-        <v>0.1052515138801798</v>
+        <v>0.08022967564521397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H3">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>2.908219</v>
       </c>
       <c r="O3">
-        <v>0.5466470204341869</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="P3">
-        <v>0.546647020434187</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="Q3">
-        <v>0.8144790444944442</v>
+        <v>1.380639809673889</v>
       </c>
       <c r="R3">
-        <v>7.330311400449999</v>
+        <v>12.425758287065</v>
       </c>
       <c r="S3">
-        <v>0.5466470204341869</v>
+        <v>0.2730594381596053</v>
       </c>
       <c r="T3">
-        <v>0.546647020434187</v>
+        <v>0.2730594381596053</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H4">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.112113</v>
+        <v>1.351483666666667</v>
       </c>
       <c r="N4">
-        <v>0.336339</v>
+        <v>4.054451</v>
       </c>
       <c r="O4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="P4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="Q4">
-        <v>0.09419547404999999</v>
+        <v>1.924798805376111</v>
       </c>
       <c r="R4">
-        <v>0.8477592664499999</v>
+        <v>17.323189248385</v>
       </c>
       <c r="S4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
       <c r="T4">
-        <v>0.06322038065421277</v>
+        <v>0.3806818235166093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H5">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.201019</v>
+        <v>0.23571</v>
       </c>
       <c r="N5">
-        <v>0.603057</v>
+        <v>0.70713</v>
       </c>
       <c r="O5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="P5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="Q5">
-        <v>0.1688928134833333</v>
+        <v>0.3357009319499999</v>
       </c>
       <c r="R5">
-        <v>1.52003532135</v>
+        <v>3.02130838755</v>
       </c>
       <c r="S5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
       <c r="T5">
-        <v>0.1133543629974151</v>
+        <v>0.066394078474077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8401833333333332</v>
+        <v>1.424211666666666</v>
       </c>
       <c r="H6">
-        <v>2.52055</v>
+        <v>4.272634999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.30418</v>
+        <v>0.7087373333333332</v>
       </c>
       <c r="N6">
-        <v>0.91254</v>
+        <v>2.126212</v>
       </c>
       <c r="O6">
-        <v>0.1715267220340053</v>
+        <v>0.1996349842044944</v>
       </c>
       <c r="P6">
-        <v>0.1715267220340054</v>
+        <v>0.1996349842044945</v>
       </c>
       <c r="Q6">
-        <v>0.2555669663333333</v>
+        <v>1.009391978735555</v>
       </c>
       <c r="R6">
-        <v>2.300102697</v>
+        <v>9.084527808619997</v>
       </c>
       <c r="S6">
-        <v>0.1715267220340053</v>
+        <v>0.1996349842044944</v>
       </c>
       <c r="T6">
-        <v>0.1715267220340054</v>
+        <v>0.1996349842044945</v>
       </c>
     </row>
   </sheetData>
